--- a/pred_ohlcv/54_21/2020-01-25 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8575.26597101</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8569.26597101</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8667.26597101</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8689.26597101</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8687.26597101</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8848.065971009999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8902.384771009998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8983.184471009998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9948.976071009998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-9946.976071009998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-8888.678571009998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8931.594471009998</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1499.156528990004</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1694.830571009996</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1372.308471009996</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1982.683071009996</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6924.422471009997</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-9204.503571009996</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-9200.503571009996</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-9204.503571009996</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-9214.503571009996</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-9232.503571009996</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9236.503571009996</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9252.503571009996</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-9582.109371009996</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-10766.42297101</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-10768.42297101</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-10359.17267101</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-10361.17267101</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-10367.17267101</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-10365.17267101</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-10343.17267101</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9367.172671009996</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-13779.59327101</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9620.231771009996</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-10255.93177101</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5279.974571009996</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10282.86747100999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10358.10137100999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10683.10137100999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12718.80227100999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-11994.20667100999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-11992.20667100999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5884.541428990007</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>12260.49401759001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10716.30172538001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11277.30304547001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>11147.52274547001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>7413.28474547001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>7477.64774547001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>6156.66736717001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6903.16736717001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5693.16736717001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>5728.16736717001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>5557.13956717001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4947.93346717001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>3978.96406717001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>929.9640671700099</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>913.9640671700099</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>962.3386671700099</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>955.5850671700099</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8575.26597101</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8569.26597101</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8667.26597101</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8669.26597101</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8689.26597101</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8687.26597101</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8848.065971009999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8846.065971009999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8902.384771009998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8983.184471009998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9948.976071009998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-9946.976071009998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-8888.678571009998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8895.595071009997</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8931.594471009998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-7943.065071009997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1499.156528990004</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1694.830571009996</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1372.308471009996</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1982.683071009996</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5992.683071009997</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6924.422471009997</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-9200.503571009996</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-9214.503571009996</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-9232.503571009996</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-9236.503571009996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-9252.503571009996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-9582.109371009996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-10766.42297101</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-10768.42297101</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10593.95527101</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-10317.17267101</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-9367.172671009996</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-13779.59327101</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-9620.231771009996</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-10255.93177101</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-10253.93177101</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-9279.974571009996</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5279.974571009996</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-10282.86747100999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-10358.10137100999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-10683.10137100999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-10681.10137100999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12718.80227100999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-11994.20667100999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-11992.20667100999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>5884.541428990007</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>12260.49401759001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>12364.19401759001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>10716.30172538001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11277.30304547001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>11147.52274547001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>11595.30744547001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>10901.19364547001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>7413.28474547001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>7477.64774547001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>6156.66736717001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4947.93346717001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>929.9640671700099</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>913.9640671700099</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>962.3386671700099</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
